--- a/medicine/Pharmacie/Limonoïde/Limonoïde.xlsx
+++ b/medicine/Pharmacie/Limonoïde/Limonoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Limono%C3%AFde</t>
+          <t>Limonoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les limonoïdes sont des composés phytochimiques, abondants dans les agrumes et autres plantes de la famille des Rutacées et Méliacées.
 Les limonoïdes sont à l'étude pour une grande variété d'effets thérapeutiques (antiviral, antifongique, antibactérien, antinéoplasique et des médicaments antipaludiques).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Limono%C3%AFde</t>
+          <t>Limonoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Famille moléculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tétranortriterpènes (en général quatre cycles à six atomes et un cycle de furane).
 La limonine (en) et la nomiline sont les principaux limonoïdes des agrumes.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Limono%C3%AFde</t>
+          <t>Limonoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source végétale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pépins et albedo d'agrumes (Citrus : citron, lime…).
 Ils sont responsables de la saveur amère et de l'odeur caractéristique des pelures d'agrumes qui en contiennent (ou être insipides).
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Limono%C3%AFde</t>
+          <t>Limonoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,18 +593,20 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Antioxydants[1].
-Induisent les enzymes de phase II[2],[3].
-Anticancers in vitro, diminuant la prolifération de cellules cancéreuses du sein et de cellules neuroblastiques cancéreuses, inducteurs d'apoptose[4].
-Inhibition de la croissance de différents cancers[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Antioxydants.
+Induisent les enzymes de phase II,.
+Anticancers in vitro, diminuant la prolifération de cellules cancéreuses du sein et de cellules neuroblastiques cancéreuses, inducteurs d'apoptose.
+Inhibition de la croissance de différents cancers.
 L’obacunone, autre limonoïde, s’est avéré efficace pour diminuer l’incidence de tumeurs du côlon.
 Synergie des limonoïdes entre eux, ou avec d’autres composés (flavonoïdes).
-Hypocholestérolémiants[6].
-Inhibition de la réplication du virus de l'immunodéficience humaine (VIH) in vitro, inhibition de l’activité de la protéase du virus[7].
+Hypocholestérolémiants.
+Inhibition de la réplication du virus de l'immunodéficience humaine (VIH) in vitro, inhibition de l’activité de la protéase du virus.
 Immuno-stimulants.
-Propriétés insecticides[8].</t>
+Propriétés insecticides.</t>
         </is>
       </c>
     </row>
